--- a/Sprint-Backlog.xlsx
+++ b/Sprint-Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -65,19 +65,25 @@
     <t>Tôn Thất Vĩnh</t>
   </si>
   <si>
-    <t>As a / an website visitor I want to Giới thiệu cách tạo video từ một công cụ so that Có thể tự mình làm được video để đi phỏng vấn.</t>
-  </si>
-  <si>
-    <t>Tìm hiểu công cụ và viết bài giới thiệu cách làm</t>
-  </si>
-  <si>
     <t>As a / an website visitor I want to Thấy được những điều cần lưu ý (nội dung, background, nhạc, công cụ, …) khi làm một video  so that Dễ gây ấn tượng cho người xem hơn.</t>
   </si>
   <si>
-    <t>Tìm hiểu lưu ý về nội dung</t>
-  </si>
-  <si>
-    <t>Tìm hiểu lưu ý về background, nhạc, công cụ…</t>
+    <t>As a / an website visitor I want to Thấy công dụng việc làm video. so that Biết lợi ích khi có một video giới thiệu về cá nhân.</t>
+  </si>
+  <si>
+    <t>Tìm hiểu về công dụng khi làm video đó (mục đích)</t>
+  </si>
+  <si>
+    <t>Viết nội dung phần tìm hiểu của Tiến lên web</t>
+  </si>
+  <si>
+    <t>Tìm hiểu những nội dung cần có khi làm video</t>
+  </si>
+  <si>
+    <t>Tìm hiểu những lưu ý về background, nhạc,</t>
+  </si>
+  <si>
+    <t>Viết nội dung phần tìm hiểu các bạn lên web</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -479,19 +485,19 @@
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
@@ -500,16 +506,16 @@
     <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="10">
         <v>0</v>
@@ -520,16 +526,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="10">
         <v>0</v>
@@ -538,16 +544,16 @@
     <row r="5" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
@@ -556,7 +562,7 @@
     <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>12</v>
@@ -565,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
@@ -581,7 +587,7 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:F8" si="0">SUM(E2:E6)</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>

--- a/Sprint-Backlog.xlsx
+++ b/Sprint-Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -65,25 +65,16 @@
     <t>Tôn Thất Vĩnh</t>
   </si>
   <si>
-    <t>As a / an website visitor I want to Thấy được những điều cần lưu ý (nội dung, background, nhạc, công cụ, …) khi làm một video  so that Dễ gây ấn tượng cho người xem hơn.</t>
-  </si>
-  <si>
-    <t>As a / an website visitor I want to Thấy công dụng việc làm video. so that Biết lợi ích khi có một video giới thiệu về cá nhân.</t>
-  </si>
-  <si>
-    <t>Tìm hiểu về công dụng khi làm video đó (mục đích)</t>
-  </si>
-  <si>
-    <t>Viết nội dung phần tìm hiểu của Tiến lên web</t>
-  </si>
-  <si>
-    <t>Tìm hiểu những nội dung cần có khi làm video</t>
-  </si>
-  <si>
-    <t>Tìm hiểu những lưu ý về background, nhạc,</t>
-  </si>
-  <si>
-    <t>Viết nội dung phần tìm hiểu các bạn lên web</t>
+    <t>As a / an website visitor I want to Thấy được một video hướng dẫn và một số video của những người đã làm so that Thấy hướng dẫn chi tiết và sản phẩm tiêu biểu.</t>
+  </si>
+  <si>
+    <t>As a / an visitor I want to Có poster so that giới thiệu sản phẩm</t>
+  </si>
+  <si>
+    <t>Làm poster giới thiệu sản phẩm</t>
+  </si>
+  <si>
+    <t>Thực hiện video giới thiệu cá nhân</t>
   </si>
 </sst>
 </file>
@@ -450,7 +441,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -491,13 +482,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
@@ -506,16 +497,16 @@
     <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="10">
         <v>0</v>
@@ -526,7 +517,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>8</v>
@@ -535,7 +526,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" s="10">
         <v>0</v>
@@ -544,7 +535,7 @@
     <row r="5" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>9</v>
@@ -553,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
@@ -562,16 +553,16 @@
     <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
@@ -587,7 +578,7 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:F8" si="0">SUM(E2:E6)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>

--- a/Sprint-Backlog.xlsx
+++ b/Sprint-Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TonThat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\NMCNTT2-PROJECT1.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,9 +47,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>Nguyễn Đào Xuân Trường</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Thực hiện video giới thiệu cá nhân</t>
+  </si>
+  <si>
+    <t>Finished</t>
   </si>
 </sst>
 </file>
@@ -476,19 +476,19 @@
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
@@ -497,16 +497,16 @@
     <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E3" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" s="10">
         <v>0</v>
@@ -514,19 +514,19 @@
     </row>
     <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="10">
         <v>0</v>
@@ -535,16 +535,16 @@
     <row r="5" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
@@ -553,16 +553,16 @@
     <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
@@ -578,7 +578,7 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:F8" si="0">SUM(E2:E6)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
